--- a/biology/Botanique/Papa_Meilland/Papa_Meilland.xlsx
+++ b/biology/Botanique/Papa_Meilland/Papa_Meilland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Papa Meilland est un cultivar de rosiers, du groupe des hybrides de thé mis au point par le pépiniériste français Francis Meilland.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un hybride de thé à grandes fleurs très doubles qui s'ouvrent en coupe, remarquable par sa couleur, un rouge sombre cramoisi et son parfum. Les fleurs sont solitaires sur de fortes tiges. La floraison est très soutenue d'avril à octobre.
 Le feuillage est vert vif.
@@ -546,9 +560,11 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cultivar est issu du croisement suivant : 'Chrysler Imperial' × 'Charles Mallerin'[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar est issu du croisement suivant : 'Chrysler Imperial' × 'Charles Mallerin'.
 Ce fut le premier cultivar de rosier enregistré officiellement en France, sous le nom de « Meicesar », pour bénéficier d'une protection légale.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rose favorite du monde, 1988,
 Médaille d'or à Baden-Baden, 1962.</t>
